--- a/docentes/Flores Ovalle Victor - Estadisticos 20242.xlsx
+++ b/docentes/Flores Ovalle Victor - Estadisticos 20242.xlsx
@@ -73,7 +73,7 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>ARELLANO</t>
+    <t>SANCHEZ</t>
   </si>
   <si>
     <t>BONILLA</t>
@@ -82,7 +82,7 @@
     <t>RODRIGUEZ</t>
   </si>
   <si>
-    <t>FIERROS</t>
+    <t>PINO</t>
   </si>
   <si>
     <t>IBAÑEZ</t>
@@ -91,7 +91,7 @@
     <t>FLORES</t>
   </si>
   <si>
-    <t>ALDO EMANUEL</t>
+    <t>YARETZY NAOMI</t>
   </si>
   <si>
     <t>FERNANDA MARGARITA</t>
@@ -595,16 +595,19 @@
         <v>28</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>92.86</v>
+      </c>
+      <c r="H2">
+        <v>6.9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -618,16 +621,19 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>92.86</v>
+      </c>
+      <c r="H3">
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>
@@ -686,16 +692,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2">
-        <v>85.70999999999999</v>
+        <v>92.86</v>
       </c>
       <c r="H2">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -712,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3">
-        <v>85.70999999999999</v>
+        <v>92.86</v>
       </c>
       <c r="H3">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
     </row>
   </sheetData>
@@ -766,7 +772,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>22330051920231</v>
+        <v>24330051920247</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -778,10 +784,10 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>4</v>

--- a/docentes/Flores Ovalle Victor - Estadisticos 20242.xlsx
+++ b/docentes/Flores Ovalle Victor - Estadisticos 20242.xlsx
@@ -790,7 +790,7 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">
